--- a/biology/Médecine/Liste_des_maladies_génétiques_à_gène_identifié/Liste_des_maladies_génétiques_à_gène_identifié.xlsx
+++ b/biology/Médecine/Liste_des_maladies_génétiques_à_gène_identifié/Liste_des_maladies_génétiques_à_gène_identifié.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_maladies_g%C3%A9n%C3%A9tiques_%C3%A0_g%C3%A8ne_identifi%C3%A9</t>
+          <t>Liste_des_maladies_génétiques_à_gène_identifié</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste est celle de maladies génétiques auxquelles un ou plusieurs gène(s) ont / a été associé(s), 
 soit que le(s) gène(s) ou leur(s) / sa mutation(s) est / sont nécessaire(s) et responsable(s) de la maladie,
@@ -504,7 +516,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_maladies_g%C3%A9n%C3%A9tiques_%C3%A0_g%C3%A8ne_identifi%C3%A9</t>
+          <t>Liste_des_maladies_génétiques_à_gène_identifié</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,13 +536,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Par organe ou fonction
-Les maladies génétiques de l'os sont regroupées ici et les articles ici ;
+          <t>Par organe ou fonction</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les maladies génétiques de l'os sont regroupées ici et les articles ici ;
 les articles sur les maladies métaboliques congénitales ici ;
-les articles sur les maladies neuromusculaires héréditaires ici.
-Par chromosome
-En cliquant sur tel ou tel chromosome ci-dessous, maladies génétiques supportées par lui.
-</t>
+les articles sur les maladies neuromusculaires héréditaires ici.</t>
         </is>
       </c>
     </row>
@@ -540,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_maladies_g%C3%A9n%C3%A9tiques_%C3%A0_g%C3%A8ne_identifi%C3%A9</t>
+          <t>Liste_des_maladies_génétiques_à_gène_identifié</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,39 +569,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Liste complète</t>
+          <t>Autres listes de maladies génétiques</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Avec un nom commençant par un numéro
-Avec un nom commençant par une lettre
-A
-B
-C
-D
-E
-F
-G
-H
-I
-J
-K
-L
-M
-N
-O
-P
-Q
-R
-S
-T
-U
-V
-W
-X
-Y
-Z</t>
+          <t>Par chromosome</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En cliquant sur tel ou tel chromosome ci-dessous, maladies génétiques supportées par lui.
+</t>
         </is>
       </c>
     </row>
